--- a/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_20000_1.xlsx
+++ b/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_20000_1.xlsx
@@ -662,7 +662,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -678,7 +678,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -710,7 +710,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -774,7 +774,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -790,7 +790,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -854,7 +854,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -886,7 +886,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -902,7 +902,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -918,7 +918,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -950,7 +950,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -966,7 +966,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -982,7 +982,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B30" t="n">

--- a/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_20000_1.xlsx
+++ b/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_20000_1.xlsx
@@ -678,7 +678,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -694,7 +694,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -710,7 +710,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -726,7 +726,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -742,7 +742,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -790,7 +790,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -806,7 +806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -822,7 +822,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -854,7 +854,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -870,7 +870,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -886,7 +886,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -902,7 +902,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -918,7 +918,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -934,7 +934,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -950,7 +950,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -966,7 +966,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -982,7 +982,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B30" t="n">
